--- a/xlsx/.gov_intext.xlsx
+++ b/xlsx/.gov_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>.gov</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>頂級域</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_.gov</t>
+    <t>顶级域</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_.gov</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E5%8A%A9%E7%B1%BB%E9%A1%B6%E7%BA%A7%E5%9F%9F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>政府機構</t>
+    <t>政府机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.com</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%81%A9%C2%B7%E6%B3%A2%E6%96%AF%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>喬恩·波斯特爾</t>
+    <t>乔恩·波斯特尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joyce_K._Reynolds</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%A6%8F%E5%89%87%E5%BD%99%E7%B7%A8</t>
   </si>
   <si>
-    <t>聯邦規則彙編</t>
+    <t>联邦规则汇编</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
@@ -137,9 +137,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B6%E7%BA%A7%E5%9F%9F</t>
   </si>
   <si>
-    <t>顶级域</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>韓國政府</t>
+    <t>韩国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
@@ -221,9 +218,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>通用頂級域</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.biz</t>
   </si>
   <si>
@@ -461,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家及地區頂級域</t>
+    <t>国家及地区顶级域</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1377,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1409,10 +1403,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1438,10 +1432,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>6</v>
@@ -1467,10 +1461,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1496,10 +1490,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>16</v>
@@ -1525,10 +1519,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1554,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1583,10 +1577,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1612,10 +1606,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1641,10 +1635,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1670,10 +1664,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1699,10 +1693,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>6</v>
@@ -1728,10 +1722,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1757,10 +1751,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1786,10 +1780,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1815,10 +1809,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
@@ -1844,10 +1838,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1873,10 +1867,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1902,10 +1896,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1931,10 +1925,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1960,10 +1954,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1989,10 +1983,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2018,10 +2012,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2047,10 +2041,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2076,10 +2070,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2105,10 +2099,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2134,10 +2128,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2163,10 +2157,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2192,10 +2186,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2221,10 +2215,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>4</v>
@@ -2250,10 +2244,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2279,10 +2273,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2308,10 +2302,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2337,10 +2331,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2395,10 +2389,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2424,10 +2418,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2453,10 +2447,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2482,10 +2476,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2511,10 +2505,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2540,10 +2534,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>6</v>
@@ -2569,10 +2563,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2598,10 +2592,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2627,10 +2621,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2656,10 +2650,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2685,10 +2679,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2714,10 +2708,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2743,10 +2737,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2772,10 +2766,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2801,10 +2795,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2830,10 +2824,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2859,10 +2853,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2888,10 +2882,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2917,10 +2911,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -2946,10 +2940,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2975,10 +2969,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3004,10 +2998,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3033,10 +3027,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3062,10 +3056,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3091,10 +3085,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3149,10 +3143,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3178,10 +3172,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3207,10 +3201,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3236,10 +3230,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3265,10 +3259,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -3294,10 +3288,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F86" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3323,10 +3317,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3352,10 +3346,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -3381,10 +3375,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3410,10 +3404,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
